--- a/openerp/addons-rat-trading/TGB_RatTrading/static/templates/multiple_quotation.xlsx
+++ b/openerp/addons-rat-trading/TGB_RatTrading/static/templates/multiple_quotation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Customer Name</t>
   </si>
@@ -22,91 +22,52 @@
     <t>Customer Id</t>
   </si>
   <si>
-    <t>TOMATO M (CAMERON)</t>
+    <t>WONGBOK (AUSTRALIA)</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>TOMATO XL (CAMERON)</t>
-  </si>
-  <si>
-    <t>ROCKETS (AUSTRALIA)</t>
-  </si>
-  <si>
-    <t>REDONION (AUSTRALIA)</t>
+    <t>KENYA BEAN (INDONESIA)</t>
+  </si>
+  <si>
+    <t>PURPLE SWEET POTATO (INDONESIA)</t>
+  </si>
+  <si>
+    <t>PETAI BEAN 135gx5x20 (INDONESIA)</t>
+  </si>
+  <si>
+    <t>MANGO (INDONESIA)</t>
   </si>
   <si>
     <t>PUMPKIN (AUSTRALIA)</t>
   </si>
   <si>
+    <t>PETAI BEAN 200gx5x20 (INDONESIA)</t>
+  </si>
+  <si>
     <t>KALE (AUSTRALIA)</t>
   </si>
   <si>
-    <t>WATERCRESS (INDONESIA)</t>
-  </si>
-  <si>
-    <t>SALAK (INDONESIA)</t>
-  </si>
-  <si>
-    <t>ZUCCHINI (INDONESIA)</t>
-  </si>
-  <si>
     <t>YOUNG GINGER (INDONESIA)</t>
   </si>
   <si>
-    <t>KENYA BEAN (INDONESIA)</t>
-  </si>
-  <si>
-    <t>WONGBOK (AUSTRALIA)</t>
-  </si>
-  <si>
-    <t>ZUCCHINI (AUSTRALIA)</t>
-  </si>
-  <si>
-    <t>WHITE BUTTON MUSHROOM (HOLLAND)</t>
-  </si>
-  <si>
-    <t>PETAI BEAN 135gx5x20 (INDONESIA)</t>
-  </si>
-  <si>
-    <t>SNOW PEA (ZIMBABWE)</t>
-  </si>
-  <si>
-    <t>SUGAR SNAP PEA (ZIMBABWE)</t>
-  </si>
-  <si>
-    <t>SEEDLESS LIME (AUSTRALIA)</t>
-  </si>
-  <si>
-    <t>SWEET POTATO (AUSTRALIA)</t>
-  </si>
-  <si>
-    <t>SPINACH (CAMERON)</t>
-  </si>
-  <si>
-    <t>TOMATO (CAMERON)</t>
-  </si>
-  <si>
-    <t>MANGO (INDONESIA)</t>
-  </si>
-  <si>
-    <t>PETAI BEAN 200gx5x20 (INDONESIA)</t>
-  </si>
-  <si>
-    <t>PURPLE SWEET POTATO (INDONESIA)</t>
-  </si>
-  <si>
-    <t>USA-CELERY (USA)</t>
-  </si>
-  <si>
-    <t>USA-CHERRY (USA)</t>
-  </si>
-  <si>
-    <t>RADISH (HOLLAND)</t>
-  </si>
-  <si>
-    <t>TOMATO L (CAMERON)</t>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>QWER</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -438,13 +399,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF1"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,119 +466,191 @@
       <c r="T1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="V1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="X1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>3</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
